--- a/biology/Botanique/Paecilomyces/Paecilomyces.xlsx
+++ b/biology/Botanique/Paecilomyces/Paecilomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paecilomyces est un genre de mycètes (moisissures), dont un bon nombre d'espèces sont phytopathogènes.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2019) :
 Paecilomyces antarcticus Bridge, M. S. Clark &amp; D. A. Pearce, 2005
 Paecilomyces aspergilloides Pidopl., 1950
 Paecilomyces atrovirens Z. Q. Liang &amp; A. Y. Liu, 1993
@@ -603,7 +619,7 @@
 Paecilomyces wawuensis Jin He, J. C. Kang &amp; B. X. Lei, 2011
 Paecilomyces xylariiformis (Lloyd) Samson, 1974
 Paecilomyces zollerniae Stolk &amp; Samson, 1971
-Selon Index Fungorum                                      (9 octobre 2019)[4] :
+Selon Index Fungorum                                      (9 octobre 2019) :
 Paecilomyces albus Demelius 1916
 Paecilomyces antarcticus Bridge, M.S. Clark &amp; D.A. Pearce 2005
 Paecilomyces aspergilloides Pidopl. 1950
